--- a/benchmarks/bse100Benchmark.xlsx
+++ b/benchmarks/bse100Benchmark.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qkrishi\pilot_PO\Streamlit\benchmarks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C32F6F-F170-4445-A9D1-C1A964CE1291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bse100Benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="229">
   <si>
     <t>Company name</t>
   </si>
@@ -58,628 +75,660 @@
     <t>tube investments of india</t>
   </si>
   <si>
+    <t>TIINDIA.NS</t>
+  </si>
+  <si>
+    <t>Large Cap</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
     <t>dlf</t>
   </si>
   <si>
+    <t>DLF.NS</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Build Mate</t>
+  </si>
+  <si>
     <t>zomato</t>
   </si>
   <si>
+    <t>ZOMATO.NS</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
     <t>dr reddys laboratories</t>
   </si>
   <si>
+    <t>DRREDDY.NS</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>shree cement</t>
   </si>
   <si>
+    <t>SHREECEM.NS</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
     <t>cummins india</t>
   </si>
   <si>
+    <t>CUMMINSIND.NS</t>
+  </si>
+  <si>
     <t>indian hotels company</t>
   </si>
   <si>
+    <t>INDHOTEL.NS</t>
+  </si>
+  <si>
+    <t>Discretionary</t>
+  </si>
+  <si>
     <t>indusind bank</t>
   </si>
   <si>
+    <t>INDUSINDBK.NS</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
     <t>ashok leyland</t>
   </si>
   <si>
+    <t>ASHOKLEY.NS</t>
+  </si>
+  <si>
+    <t>Auto &amp; Anc</t>
+  </si>
+  <si>
     <t>bharat forge</t>
   </si>
   <si>
+    <t>BHARATFORG.NS</t>
+  </si>
+  <si>
     <t>info edge india</t>
   </si>
   <si>
+    <t>NAUKRI.NS</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
     <t>siemens</t>
   </si>
   <si>
+    <t>SIEMENS.NS</t>
+  </si>
+  <si>
     <t>marico</t>
   </si>
   <si>
+    <t>MARICO.NS</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
     <t>irctc</t>
   </si>
   <si>
+    <t>IRCTC.NS</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
     <t>ambuja cements</t>
   </si>
   <si>
+    <t>AMBUJACEM.NS</t>
+  </si>
+  <si>
     <t>yes bank</t>
   </si>
   <si>
+    <t>YESBANK.NS</t>
+  </si>
+  <si>
     <t>havells india</t>
   </si>
   <si>
+    <t>HAVELLS.NS</t>
+  </si>
+  <si>
     <t>canara bank</t>
   </si>
   <si>
+    <t>CANBK.NS</t>
+  </si>
+  <si>
     <t>power finance corporation</t>
   </si>
   <si>
+    <t>PFC.NS</t>
+  </si>
+  <si>
+    <t>NBFC</t>
+  </si>
+  <si>
     <t>persistent systems</t>
   </si>
   <si>
+    <t>PERSISTENT.NS</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>bank of baroda</t>
   </si>
   <si>
+    <t>BANKBARODA.NS</t>
+  </si>
+  <si>
     <t>srf</t>
   </si>
   <si>
+    <t>SRF.NS</t>
+  </si>
+  <si>
     <t>max healthcare institute</t>
   </si>
   <si>
+    <t>MAXHEALTH.NS</t>
+  </si>
+  <si>
     <t>hdfc life insurance company</t>
   </si>
   <si>
+    <t>HDFCLIFE.NS</t>
+  </si>
+  <si>
     <t>lti mindtree</t>
   </si>
   <si>
+    <t>LTIM.NS</t>
+  </si>
+  <si>
     <t>punjab national bank</t>
   </si>
   <si>
+    <t>PNB.NS</t>
+  </si>
+  <si>
     <t>bajaj finance</t>
   </si>
   <si>
+    <t>BAJFINANCE.NS</t>
+  </si>
+  <si>
     <t>apl apollo tubes</t>
   </si>
   <si>
+    <t>APLAPOLLO.NS</t>
+  </si>
+  <si>
     <t>power grid corporation of india</t>
   </si>
   <si>
+    <t>POWERGRID.NS</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
     <t>tvs motor company</t>
   </si>
   <si>
+    <t>TVSMOTOR.NS</t>
+  </si>
+  <si>
     <t>pidilite industries</t>
   </si>
   <si>
+    <t>PIDILITIND.NS</t>
+  </si>
+  <si>
+    <t>Agri &amp; Chem</t>
+  </si>
+  <si>
     <t>axis bank</t>
   </si>
   <si>
+    <t>AXISBANK.NS</t>
+  </si>
+  <si>
     <t>hindustan aeronautics</t>
   </si>
   <si>
+    <t>HAL.NS</t>
+  </si>
+  <si>
     <t>eicher motors</t>
   </si>
   <si>
+    <t>EICHERMOT.NS</t>
+  </si>
+  <si>
     <t>bharat electronics</t>
   </si>
   <si>
+    <t>BEL.NS</t>
+  </si>
+  <si>
     <t>mahindra &amp; mahindra</t>
   </si>
   <si>
+    <t>M&amp;M.NS</t>
+  </si>
+  <si>
     <t>idfc first bank</t>
   </si>
   <si>
+    <t>IDFCFIRSTB.NS</t>
+  </si>
+  <si>
     <t>cipla</t>
   </si>
   <si>
+    <t>CIPLA.NS</t>
+  </si>
+  <si>
     <t>federal bank</t>
   </si>
   <si>
+    <t>FEDERALBNK.NS</t>
+  </si>
+  <si>
     <t>icici bank</t>
   </si>
   <si>
+    <t>ICICIBANK.NS</t>
+  </si>
+  <si>
     <t>varun beverages</t>
   </si>
   <si>
+    <t>VBL.NS</t>
+  </si>
+  <si>
     <t>trent</t>
   </si>
   <si>
+    <t>TRENT.NS</t>
+  </si>
+  <si>
     <t>itc</t>
   </si>
   <si>
+    <t>ITC.NS</t>
+  </si>
+  <si>
     <t>coal india</t>
   </si>
   <si>
+    <t>COALINDIA.NS</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Metals &amp; min</t>
+  </si>
+  <si>
     <t>apollo hospitals enterprise</t>
   </si>
   <si>
+    <t>APOLLOHOSP.NS</t>
+  </si>
+  <si>
     <t>godrej consumer products</t>
   </si>
   <si>
+    <t>GODREJCP.NS</t>
+  </si>
+  <si>
     <t>maruti suzuki india</t>
   </si>
   <si>
+    <t>MARUTI.NS</t>
+  </si>
+  <si>
     <t>state bank of india</t>
   </si>
   <si>
+    <t>SBIN.NS</t>
+  </si>
+  <si>
     <t>britannia industries</t>
   </si>
   <si>
+    <t>BRITANNIA.NS</t>
+  </si>
+  <si>
     <t>asian paints</t>
   </si>
   <si>
+    <t>ASIANPAINT.NS</t>
+  </si>
+  <si>
     <t>sun pharmaceutical industries</t>
   </si>
   <si>
+    <t>SUNPHARMA.NS</t>
+  </si>
+  <si>
     <t>bajaj auto</t>
   </si>
   <si>
+    <t>BAJAJ-AUTO.NS</t>
+  </si>
+  <si>
     <t>wipro</t>
   </si>
   <si>
+    <t>WIPRO.NS</t>
+  </si>
+  <si>
     <t>larsen &amp; toubro</t>
   </si>
   <si>
+    <t>LT.NS</t>
+  </si>
+  <si>
     <t>grasim industries</t>
   </si>
   <si>
+    <t>GRASIM.NS</t>
+  </si>
+  <si>
     <t>hdfc bank</t>
   </si>
   <si>
+    <t>HDFCBANK.NS</t>
+  </si>
+  <si>
     <t>divis laboratories</t>
   </si>
   <si>
+    <t>DIVISLAB.NS</t>
+  </si>
+  <si>
     <t>reliance industries</t>
   </si>
   <si>
+    <t>RELIANCE.NS</t>
+  </si>
+  <si>
+    <t>Oil &amp; gas</t>
+  </si>
+  <si>
     <t>bajaj finserv</t>
   </si>
   <si>
+    <t>BAJAJFINSV.NS</t>
+  </si>
+  <si>
     <t>sbi life insurance company</t>
   </si>
   <si>
+    <t>SBILIFE.NS</t>
+  </si>
+  <si>
     <t>hdfc amc</t>
   </si>
   <si>
+    <t>HDFCAMC.NS</t>
+  </si>
+  <si>
     <t>dabur india</t>
   </si>
   <si>
+    <t>DABUR.NS</t>
+  </si>
+  <si>
     <t>nestle india</t>
   </si>
   <si>
+    <t>NESTLEIND.NS</t>
+  </si>
+  <si>
     <t>lupin</t>
   </si>
   <si>
+    <t>LUPIN.NS</t>
+  </si>
+  <si>
     <t>gail india</t>
   </si>
   <si>
+    <t>GAIL.NS</t>
+  </si>
+  <si>
     <t>interglobe aviation</t>
   </si>
   <si>
+    <t>INDIGO.NS</t>
+  </si>
+  <si>
     <t>tata power</t>
   </si>
   <si>
+    <t>TATAPOWER.NS</t>
+  </si>
+  <si>
     <t>adani enterprises</t>
   </si>
   <si>
+    <t>ADANIENT.NS</t>
+  </si>
+  <si>
     <t>tata steel</t>
   </si>
   <si>
+    <t>TATASTEEL.NS</t>
+  </si>
+  <si>
     <t>indian oil corporation</t>
   </si>
   <si>
+    <t>IOC.NS</t>
+  </si>
+  <si>
     <t>hero motocorp</t>
   </si>
   <si>
+    <t>HEROMOTOCO.NS</t>
+  </si>
+  <si>
     <t>hcl technologies</t>
   </si>
   <si>
+    <t>HCLTECH.NS</t>
+  </si>
+  <si>
     <t>avenue supermarts</t>
   </si>
   <si>
+    <t>DMART.NS</t>
+  </si>
+  <si>
     <t>tata motors</t>
   </si>
   <si>
+    <t>TATAMOTORS.NS</t>
+  </si>
+  <si>
     <t>shriram finance</t>
   </si>
   <si>
+    <t>SHRIRAMFIN.NS</t>
+  </si>
+  <si>
     <t>icici lombard general insurance company</t>
   </si>
   <si>
+    <t>ICICIGI.NS</t>
+  </si>
+  <si>
     <t>hindustan unilever</t>
   </si>
   <si>
+    <t>HINDUNILVR.NS</t>
+  </si>
+  <si>
     <t>infosys</t>
   </si>
   <si>
+    <t>INFY.NS</t>
+  </si>
+  <si>
     <t>tata consumer products</t>
   </si>
   <si>
+    <t>TATACONSUM.NS</t>
+  </si>
+  <si>
     <t>jsw steel</t>
   </si>
   <si>
+    <t>JSWSTEEL.NS</t>
+  </si>
+  <si>
     <t>tech mahindra</t>
   </si>
   <si>
+    <t>TECHM.NS</t>
+  </si>
+  <si>
     <t>p i industries</t>
   </si>
   <si>
+    <t>PIIND.NS</t>
+  </si>
+  <si>
     <t>oil &amp; natural gas corporation</t>
   </si>
   <si>
+    <t>ONGC.NS</t>
+  </si>
+  <si>
     <t>bharat petroleum corporation</t>
   </si>
   <si>
+    <t>BPCL.NS</t>
+  </si>
+  <si>
     <t>bharti airtel</t>
   </si>
   <si>
+    <t>BHARTIARTL.NS</t>
+  </si>
+  <si>
+    <t>Tele &amp; Media</t>
+  </si>
+  <si>
     <t>au small finance bank</t>
   </si>
   <si>
+    <t>AUBANK.NS</t>
+  </si>
+  <si>
     <t>vedanta</t>
   </si>
   <si>
+    <t>VEDL.NS</t>
+  </si>
+  <si>
     <t>ntpc</t>
   </si>
   <si>
+    <t>NTPC.NS</t>
+  </si>
+  <si>
     <t>tata consultancy services</t>
   </si>
   <si>
+    <t>TCS.NS</t>
+  </si>
+  <si>
     <t>ultratech cement</t>
   </si>
   <si>
+    <t>ULTRACEMCO.NS</t>
+  </si>
+  <si>
     <t>hindalco industries</t>
   </si>
   <si>
+    <t>HINDALCO.NS</t>
+  </si>
+  <si>
     <t>adani ports &amp; special economic zone</t>
   </si>
   <si>
+    <t>ADANIPORTS.NS</t>
+  </si>
+  <si>
     <t>colgate palmolive india</t>
   </si>
   <si>
+    <t>COLPAL.NS</t>
+  </si>
+  <si>
     <t>cholamandalam investment &amp; finance company</t>
   </si>
   <si>
+    <t>CHOLAFIN.NS</t>
+  </si>
+  <si>
     <t>titan company</t>
   </si>
   <si>
-    <t>TIINDIA.NS</t>
-  </si>
-  <si>
-    <t>DLF.NS</t>
-  </si>
-  <si>
-    <t>ZOMATO.NS</t>
-  </si>
-  <si>
-    <t>DRREDDY.NS</t>
-  </si>
-  <si>
-    <t>SHREECEM.NS</t>
-  </si>
-  <si>
-    <t>CUMMINSIND.NS</t>
-  </si>
-  <si>
-    <t>INDHOTEL.NS</t>
-  </si>
-  <si>
-    <t>INDUSINDBK.NS</t>
-  </si>
-  <si>
-    <t>ASHOKLEY.NS</t>
-  </si>
-  <si>
-    <t>BHARATFORG.NS</t>
-  </si>
-  <si>
-    <t>NAUKRI.NS</t>
-  </si>
-  <si>
-    <t>SIEMENS.NS</t>
-  </si>
-  <si>
-    <t>MARICO.NS</t>
-  </si>
-  <si>
-    <t>IRCTC.NS</t>
-  </si>
-  <si>
-    <t>AMBUJACEM.NS</t>
-  </si>
-  <si>
-    <t>YESBANK.NS</t>
-  </si>
-  <si>
-    <t>HAVELLS.NS</t>
-  </si>
-  <si>
-    <t>CANBK.NS</t>
-  </si>
-  <si>
-    <t>PFC.NS</t>
-  </si>
-  <si>
-    <t>PERSISTENT.NS</t>
-  </si>
-  <si>
-    <t>BANKBARODA.NS</t>
-  </si>
-  <si>
-    <t>SRF.NS</t>
-  </si>
-  <si>
-    <t>MAXHEALTH.NS</t>
-  </si>
-  <si>
-    <t>HDFCLIFE.NS</t>
-  </si>
-  <si>
-    <t>LTIM.NS</t>
-  </si>
-  <si>
-    <t>PNB.NS</t>
-  </si>
-  <si>
-    <t>BAJFINANCE.NS</t>
-  </si>
-  <si>
-    <t>APLAPOLLO.NS</t>
-  </si>
-  <si>
-    <t>POWERGRID.NS</t>
-  </si>
-  <si>
-    <t>TVSMOTOR.NS</t>
-  </si>
-  <si>
-    <t>PIDILITIND.NS</t>
-  </si>
-  <si>
-    <t>AXISBANK.NS</t>
-  </si>
-  <si>
-    <t>HAL.NS</t>
-  </si>
-  <si>
-    <t>EICHERMOT.NS</t>
-  </si>
-  <si>
-    <t>BEL.NS</t>
-  </si>
-  <si>
-    <t>M&amp;M.NS</t>
-  </si>
-  <si>
-    <t>IDFCFIRSTB.NS</t>
-  </si>
-  <si>
-    <t>CIPLA.NS</t>
-  </si>
-  <si>
-    <t>FEDERALBNK.NS</t>
-  </si>
-  <si>
-    <t>ICICIBANK.NS</t>
-  </si>
-  <si>
-    <t>VBL.NS</t>
-  </si>
-  <si>
-    <t>TRENT.NS</t>
-  </si>
-  <si>
-    <t>ITC.NS</t>
-  </si>
-  <si>
-    <t>COALINDIA.NS</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP.NS</t>
-  </si>
-  <si>
-    <t>GODREJCP.NS</t>
-  </si>
-  <si>
-    <t>MARUTI.NS</t>
-  </si>
-  <si>
-    <t>SBIN.NS</t>
-  </si>
-  <si>
-    <t>BRITANNIA.NS</t>
-  </si>
-  <si>
-    <t>ASIANPAINT.NS</t>
-  </si>
-  <si>
-    <t>SUNPHARMA.NS</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO.NS</t>
-  </si>
-  <si>
-    <t>WIPRO.NS</t>
-  </si>
-  <si>
-    <t>LT.NS</t>
-  </si>
-  <si>
-    <t>GRASIM.NS</t>
-  </si>
-  <si>
-    <t>HDFCBANK.NS</t>
-  </si>
-  <si>
-    <t>DIVISLAB.NS</t>
-  </si>
-  <si>
-    <t>RELIANCE.NS</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV.NS</t>
-  </si>
-  <si>
-    <t>SBILIFE.NS</t>
-  </si>
-  <si>
-    <t>HDFCAMC.NS</t>
-  </si>
-  <si>
-    <t>DABUR.NS</t>
-  </si>
-  <si>
-    <t>NESTLEIND.NS</t>
-  </si>
-  <si>
-    <t>LUPIN.NS</t>
-  </si>
-  <si>
-    <t>GAIL.NS</t>
-  </si>
-  <si>
-    <t>INDIGO.NS</t>
-  </si>
-  <si>
-    <t>TATAPOWER.NS</t>
-  </si>
-  <si>
-    <t>ADANIENT.NS</t>
-  </si>
-  <si>
-    <t>TATASTEEL.NS</t>
-  </si>
-  <si>
-    <t>IOC.NS</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO.NS</t>
-  </si>
-  <si>
-    <t>HCLTECH.NS</t>
-  </si>
-  <si>
-    <t>DMART.NS</t>
-  </si>
-  <si>
-    <t>TATAMOTORS.NS</t>
-  </si>
-  <si>
-    <t>SHRIRAMFIN.NS</t>
-  </si>
-  <si>
-    <t>ICICIGI.NS</t>
-  </si>
-  <si>
-    <t>HINDUNILVR.NS</t>
-  </si>
-  <si>
-    <t>INFY.NS</t>
-  </si>
-  <si>
-    <t>TATACONSUM.NS</t>
-  </si>
-  <si>
-    <t>JSWSTEEL.NS</t>
-  </si>
-  <si>
-    <t>TECHM.NS</t>
-  </si>
-  <si>
-    <t>PIIND.NS</t>
-  </si>
-  <si>
-    <t>ONGC.NS</t>
-  </si>
-  <si>
-    <t>BPCL.NS</t>
-  </si>
-  <si>
-    <t>BHARTIARTL.NS</t>
-  </si>
-  <si>
-    <t>AUBANK.NS</t>
-  </si>
-  <si>
-    <t>VEDL.NS</t>
-  </si>
-  <si>
-    <t>NTPC.NS</t>
-  </si>
-  <si>
-    <t>TCS.NS</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO.NS</t>
-  </si>
-  <si>
-    <t>HINDALCO.NS</t>
-  </si>
-  <si>
-    <t>ADANIPORTS.NS</t>
-  </si>
-  <si>
-    <t>COLPAL.NS</t>
-  </si>
-  <si>
-    <t>CHOLAFIN.NS</t>
-  </si>
-  <si>
     <t>TITAN.NS</t>
   </si>
   <si>
-    <t>Large Cap</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Energy</t>
+    <t>sector-from-api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,7 +739,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -698,314 +747,342 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="LibreOffice">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1015,66 +1092,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C2">
         <v>72638.2</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>540762</v>
@@ -1083,10 +1179,10 @@
         <v>73347.08</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>0.09231</v>
+        <v>9.2310000000000003E-2</v>
       </c>
       <c r="I2">
         <v>110.8964</v>
@@ -1098,24 +1194,27 @@
         <v>10.17834</v>
       </c>
       <c r="L2">
-        <v>34.18865</v>
+        <v>34.188650000000003</v>
       </c>
       <c r="M2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>0.853</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="C3">
         <v>220909</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>532868</v>
@@ -1124,74 +1223,80 @@
         <v>213966</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>0.57844</v>
+        <v>0.57843999999999995</v>
       </c>
       <c r="I3">
-        <v>78.44432999999999</v>
+        <v>78.444329999999994</v>
       </c>
       <c r="J3">
-        <v>5.42636</v>
+        <v>5.4263599999999999</v>
       </c>
       <c r="K3">
-        <v>45.38329</v>
+        <v>45.383290000000002</v>
       </c>
       <c r="L3">
         <v>11.01928</v>
       </c>
       <c r="M3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>1.096</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="C4">
         <v>283962</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>543320</v>
       </c>
       <c r="F4">
-        <v>274715.4</v>
+        <v>274715.40000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>731.8249</v>
+        <v>731.82489999999996</v>
       </c>
       <c r="J4">
-        <v>12.26794</v>
+        <v>12.267939999999999</v>
       </c>
       <c r="L4">
-        <v>0.39422</v>
+        <v>0.39422000000000001</v>
       </c>
       <c r="M4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="C5">
         <v>105962</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>500124</v>
@@ -1200,39 +1305,42 @@
         <v>110432.1</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>0.6035</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="I5">
-        <v>20.05907</v>
+        <v>20.059069999999998</v>
       </c>
       <c r="J5">
-        <v>3.90642</v>
+        <v>3.9064199999999998</v>
       </c>
       <c r="K5">
-        <v>11.96328</v>
+        <v>11.963279999999999</v>
       </c>
       <c r="L5">
-        <v>66.08481</v>
+        <v>66.084810000000004</v>
       </c>
       <c r="M5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="C6">
         <v>101326</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>500387</v>
@@ -1241,39 +1349,42 @@
         <v>99644.56</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>0.3802</v>
+        <v>0.38019999999999998</v>
       </c>
       <c r="I6">
         <v>41.73019</v>
       </c>
       <c r="J6">
-        <v>4.81307</v>
+        <v>4.8130699999999997</v>
       </c>
       <c r="K6">
-        <v>8.28317</v>
+        <v>8.2831700000000001</v>
       </c>
       <c r="L6">
-        <v>661.8015</v>
+        <v>661.80150000000003</v>
       </c>
       <c r="M6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="C7">
         <v>101680</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>500480</v>
@@ -1282,39 +1393,42 @@
         <v>93074.06</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>1.13174</v>
       </c>
       <c r="I7">
-        <v>54.09213</v>
+        <v>54.092129999999997</v>
       </c>
       <c r="J7">
         <v>14.07586</v>
       </c>
       <c r="K7">
-        <v>61.22122</v>
+        <v>61.221220000000002</v>
       </c>
       <c r="L7">
-        <v>62.0728</v>
+        <v>62.072800000000001</v>
       </c>
       <c r="M7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>0.477</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C8">
         <v>123440</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>500850</v>
@@ -1323,13 +1437,13 @@
         <v>125269.2</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>0.19885</v>
       </c>
       <c r="I8">
-        <v>99.20818</v>
+        <v>99.208179999999999</v>
       </c>
       <c r="J8">
         <v>13.24667</v>
@@ -1338,36 +1452,39 @@
         <v>19.78444</v>
       </c>
       <c r="L8">
-        <v>8.87074</v>
+        <v>8.8707399999999996</v>
       </c>
       <c r="M8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="C9">
         <v>77881</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>532187</v>
       </c>
       <c r="F9">
-        <v>75131.74000000001</v>
+        <v>75131.740000000005</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>1.71091</v>
+        <v>1.7109099999999999</v>
       </c>
       <c r="I9">
         <v>7.99322</v>
@@ -1376,27 +1493,30 @@
         <v>1.18753</v>
       </c>
       <c r="K9">
-        <v>14.30529</v>
+        <v>14.305289999999999</v>
       </c>
       <c r="L9">
-        <v>120.6522</v>
+        <v>120.65219999999999</v>
       </c>
       <c r="M9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="C10">
         <v>68935</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>500477</v>
@@ -1405,30 +1525,33 @@
         <v>64372.36</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>2.04133</v>
+        <v>2.0413299999999999</v>
       </c>
       <c r="I10">
-        <v>22.82881</v>
+        <v>22.828810000000001</v>
       </c>
       <c r="J10">
-        <v>7.14857</v>
+        <v>7.1485700000000003</v>
       </c>
       <c r="K10">
-        <v>58.525</v>
+        <v>58.524999999999999</v>
       </c>
       <c r="L10">
-        <v>9.602779999999999</v>
+        <v>9.6027799999999992</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0.252</v>
@@ -1437,7 +1560,7 @@
         <v>65182.6</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>500493</v>
@@ -1446,30 +1569,33 @@
         <v>62046.34</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>0.69348</v>
+        <v>0.69347999999999999</v>
       </c>
       <c r="I11">
-        <v>62.86603</v>
+        <v>62.866030000000002</v>
       </c>
       <c r="J11">
         <v>8.42713</v>
       </c>
       <c r="K11">
-        <v>44.05611</v>
+        <v>44.056109999999997</v>
       </c>
       <c r="L11">
-        <v>20.6439</v>
+        <v>20.643899999999999</v>
       </c>
       <c r="M11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0.441</v>
@@ -1478,7 +1604,7 @@
         <v>114109</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>532777</v>
@@ -1487,39 +1613,42 @@
         <v>112453.2</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>0.27596</v>
+        <v>0.27595999999999998</v>
       </c>
       <c r="I12">
-        <v>173.2469</v>
+        <v>173.24690000000001</v>
       </c>
       <c r="J12">
-        <v>3.71097</v>
+        <v>3.7109700000000001</v>
       </c>
       <c r="K12">
-        <v>49.36232</v>
+        <v>49.362319999999997</v>
       </c>
       <c r="L12">
-        <v>50.20031</v>
+        <v>50.200310000000002</v>
       </c>
       <c r="M12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B13">
-        <v>1.096</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="C13">
         <v>284020</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>500550</v>
@@ -1528,7 +1657,7 @@
         <v>271796.5</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>0.13102</v>
@@ -1537,62 +1666,68 @@
         <v>108.6357</v>
       </c>
       <c r="J13">
-        <v>17.69888</v>
+        <v>17.698879999999999</v>
       </c>
       <c r="K13">
         <v>15.73085</v>
       </c>
       <c r="L13">
-        <v>70.25456</v>
+        <v>70.254559999999998</v>
       </c>
       <c r="M13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="C14">
-        <v>83599.89999999999</v>
+        <v>83599.899999999994</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>531642</v>
       </c>
       <c r="F14">
-        <v>82930.28999999999</v>
+        <v>82930.289999999994</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>1.48217</v>
       </c>
       <c r="I14">
-        <v>56.50731</v>
+        <v>56.507309999999997</v>
       </c>
       <c r="J14">
         <v>21.64547</v>
       </c>
       <c r="K14">
-        <v>82.98447</v>
+        <v>82.984470000000002</v>
       </c>
       <c r="L14">
-        <v>11.34278</v>
+        <v>11.342779999999999</v>
       </c>
       <c r="M14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0.26</v>
@@ -1601,7 +1736,7 @@
         <v>67388</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>542830</v>
@@ -1610,16 +1745,16 @@
         <v>64444</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>0.99311</v>
+        <v>0.99311000000000005</v>
       </c>
       <c r="I15">
-        <v>55.81655</v>
+        <v>55.816549999999999</v>
       </c>
       <c r="J15">
-        <v>19.95301</v>
+        <v>19.953009999999999</v>
       </c>
       <c r="K15">
         <v>46.80142</v>
@@ -1628,39 +1763,42 @@
         <v>14.4321</v>
       </c>
       <c r="M15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B16">
-        <v>0.5479999999999999</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="C16">
         <v>142061</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>500425</v>
       </c>
       <c r="F16">
-        <v>138747.8</v>
+        <v>138747.79999999999</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>0.35505</v>
+        <v>0.35504999999999998</v>
       </c>
       <c r="I16">
-        <v>36.28545</v>
+        <v>36.285449999999997</v>
       </c>
       <c r="J16">
-        <v>2.98625</v>
+        <v>2.9862500000000001</v>
       </c>
       <c r="K16">
         <v>13.87865</v>
@@ -1669,21 +1807,24 @@
         <v>15.52413</v>
       </c>
       <c r="M16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>0.257</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C17">
         <v>66618.5</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>532648</v>
@@ -1692,33 +1833,36 @@
         <v>63828.37</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>71.88249999999999</v>
+        <v>71.882499999999993</v>
       </c>
       <c r="J17">
-        <v>1.38942</v>
+        <v>1.3894200000000001</v>
       </c>
       <c r="L17">
-        <v>0.28324</v>
+        <v>0.28323999999999999</v>
       </c>
       <c r="M17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B18">
-        <v>0.428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="C18">
         <v>110919</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>517354</v>
@@ -1727,39 +1871,42 @@
         <v>106150.6</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H18">
-        <v>0.53155</v>
+        <v>0.53154999999999997</v>
       </c>
       <c r="I18">
-        <v>83.14373999999999</v>
+        <v>83.143739999999994</v>
       </c>
       <c r="J18">
         <v>14.24873</v>
       </c>
       <c r="K18">
-        <v>44.38368</v>
+        <v>44.383679999999998</v>
       </c>
       <c r="L18">
-        <v>20.36413</v>
+        <v>20.364129999999999</v>
       </c>
       <c r="M18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>0.376</v>
       </c>
       <c r="C19">
-        <v>97328.10000000001</v>
+        <v>97328.1</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>532483</v>
@@ -1768,39 +1915,42 @@
         <v>93337</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>3.12925</v>
+        <v>3.1292499999999999</v>
       </c>
       <c r="I19">
-        <v>5.89038</v>
+        <v>5.8903800000000004</v>
       </c>
       <c r="J19">
-        <v>1.01307</v>
+        <v>1.0130699999999999</v>
       </c>
       <c r="K19">
         <v>19.11665</v>
       </c>
       <c r="L19">
-        <v>17.46915</v>
+        <v>17.469149999999999</v>
       </c>
       <c r="M19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B20">
-        <v>0.6459999999999999</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="C20">
         <v>167365</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>532810</v>
@@ -1809,39 +1959,42 @@
         <v>158553.4</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <v>2.54969</v>
       </c>
       <c r="I20">
-        <v>8.54889</v>
+        <v>8.5488900000000001</v>
       </c>
       <c r="J20">
-        <v>1.56756</v>
+        <v>1.5675600000000001</v>
       </c>
       <c r="K20">
-        <v>22.54493</v>
+        <v>22.544930000000001</v>
       </c>
       <c r="L20">
-        <v>56.20029</v>
+        <v>56.200290000000003</v>
       </c>
       <c r="M20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B21">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="C21">
         <v>101458</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>533179</v>
@@ -1850,39 +2003,42 @@
         <v>102281.1</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>0.38956</v>
+        <v>0.38956000000000002</v>
       </c>
       <c r="I21">
-        <v>93.93015</v>
+        <v>93.930149999999998</v>
       </c>
       <c r="J21">
-        <v>20.73863</v>
+        <v>20.738630000000001</v>
       </c>
       <c r="K21">
-        <v>36.5993</v>
+        <v>36.599299999999999</v>
       </c>
       <c r="L21">
-        <v>71.05493</v>
+        <v>71.054929999999999</v>
       </c>
       <c r="M21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>70</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B22">
-        <v>0.517</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="C22">
         <v>133938</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>532134</v>
@@ -1891,39 +2047,42 @@
         <v>128410.1</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>3.06069</v>
+        <v>3.0606900000000001</v>
       </c>
       <c r="I22">
-        <v>6.84649</v>
+        <v>6.8464900000000002</v>
       </c>
       <c r="J22">
-        <v>1.07266</v>
+        <v>1.0726599999999999</v>
       </c>
       <c r="K22">
-        <v>20.94187</v>
+        <v>20.941870000000002</v>
       </c>
       <c r="L22">
-        <v>36.26821</v>
+        <v>36.268210000000003</v>
       </c>
       <c r="M22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B23">
-        <v>0.264</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="C23">
         <v>68364.5</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>503806</v>
@@ -1932,39 +2091,42 @@
         <v>67701.95</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H23">
-        <v>0.31524</v>
+        <v>0.31524000000000002</v>
       </c>
       <c r="I23">
-        <v>50.69989</v>
+        <v>50.699890000000003</v>
       </c>
       <c r="J23">
-        <v>5.89789</v>
+        <v>5.8978900000000003</v>
       </c>
       <c r="K23">
-        <v>15.97877</v>
+        <v>15.978770000000001</v>
       </c>
       <c r="L23">
         <v>45.04842</v>
       </c>
       <c r="M23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="C24">
         <v>115168</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>543220</v>
@@ -1973,39 +2135,42 @@
         <v>114779.6</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>0.12704</v>
+        <v>0.12703999999999999</v>
       </c>
       <c r="I24">
         <v>108.9714</v>
       </c>
       <c r="J24">
-        <v>13.64793</v>
+        <v>13.647930000000001</v>
       </c>
       <c r="K24">
-        <v>8.59839</v>
+        <v>8.5983900000000002</v>
       </c>
       <c r="L24">
-        <v>10.83495</v>
+        <v>10.834949999999999</v>
       </c>
       <c r="M24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>0.528</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C25">
         <v>136665</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E25">
         <v>540777</v>
@@ -2014,39 +2179,42 @@
         <v>134204.4</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H25">
-        <v>0.32074</v>
+        <v>0.32074000000000003</v>
       </c>
       <c r="I25">
-        <v>88.27401999999999</v>
+        <v>88.274019999999993</v>
       </c>
       <c r="J25">
-        <v>9.14489</v>
+        <v>9.1448900000000002</v>
       </c>
       <c r="K25">
-        <v>27.31751</v>
+        <v>27.317509999999999</v>
       </c>
       <c r="L25">
-        <v>7.0638</v>
+        <v>7.0637999999999996</v>
       </c>
       <c r="M25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B26">
-        <v>0.771</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="C26">
         <v>199609</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>540005</v>
@@ -2055,30 +2223,33 @@
         <v>184271</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H26">
-        <v>1.04492</v>
+        <v>1.0449200000000001</v>
       </c>
       <c r="I26">
-        <v>40.61152</v>
+        <v>40.611519999999999</v>
       </c>
       <c r="J26">
-        <v>9.19886</v>
+        <v>9.1988599999999998</v>
       </c>
       <c r="K26">
-        <v>38.74424</v>
+        <v>38.744239999999998</v>
       </c>
       <c r="L26">
-        <v>153.1733</v>
+        <v>153.17330000000001</v>
       </c>
       <c r="M26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>70</v>
+      </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>0.48</v>
@@ -2087,7 +2258,7 @@
         <v>124239</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E27">
         <v>532461</v>
@@ -2096,10 +2267,10 @@
         <v>118975</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H27">
-        <v>1.449</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="I27">
         <v>13.19627</v>
@@ -2108,18 +2279,21 @@
         <v>1.03261</v>
       </c>
       <c r="K27">
-        <v>18.13565</v>
+        <v>18.135649999999998</v>
       </c>
       <c r="L27">
-        <v>7.84464</v>
+        <v>7.8446400000000001</v>
       </c>
       <c r="M27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B28">
         <v>1.722</v>
@@ -2128,7 +2302,7 @@
         <v>446166</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="E28">
         <v>500034</v>
@@ -2137,16 +2311,16 @@
         <v>428026.5</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H28">
-        <v>0.52034</v>
+        <v>0.52034000000000002</v>
       </c>
       <c r="I28">
         <v>23.63477</v>
       </c>
       <c r="J28">
-        <v>5.57494</v>
+        <v>5.5749399999999998</v>
       </c>
       <c r="K28">
         <v>15.42014</v>
@@ -2155,21 +2329,24 @@
         <v>292.7276</v>
       </c>
       <c r="M28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B29">
-        <v>0.171</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="C29">
         <v>44420.6</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E29">
         <v>533758</v>
@@ -2178,30 +2355,33 @@
         <v>43936.3</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H29">
         <v>0.34741</v>
       </c>
       <c r="I29">
-        <v>60.2555</v>
+        <v>60.255499999999998</v>
       </c>
       <c r="J29">
-        <v>12.18889</v>
+        <v>12.188890000000001</v>
       </c>
       <c r="K29">
         <v>18.93261</v>
       </c>
       <c r="L29">
-        <v>26.27395</v>
+        <v>26.273949999999999</v>
       </c>
       <c r="M29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B30">
         <v>1.202</v>
@@ -2210,48 +2390,51 @@
         <v>311384</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="E30">
         <v>532898</v>
       </c>
       <c r="F30">
-        <v>299153.9</v>
+        <v>299153.90000000002</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H30">
-        <v>3.65304</v>
+        <v>3.6530399999999998</v>
       </c>
       <c r="I30">
-        <v>19.17901</v>
+        <v>19.179010000000002</v>
       </c>
       <c r="J30">
         <v>3.43283</v>
       </c>
       <c r="K30">
-        <v>72.03964999999999</v>
+        <v>72.039649999999995</v>
       </c>
       <c r="L30">
         <v>16.77094</v>
       </c>
       <c r="M30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="N30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B31">
-        <v>0.464</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="C31">
         <v>120063</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="E31">
         <v>532343</v>
@@ -2260,30 +2443,33 @@
         <v>116768.5</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H31">
-        <v>0.32525</v>
+        <v>0.32524999999999998</v>
       </c>
       <c r="I31">
-        <v>71.89852999999999</v>
+        <v>71.898529999999994</v>
       </c>
       <c r="J31">
-        <v>17.2263</v>
+        <v>17.226299999999998</v>
       </c>
       <c r="K31">
-        <v>22.53776</v>
+        <v>22.537759999999999</v>
       </c>
       <c r="L31">
         <v>34.21002</v>
       </c>
       <c r="M31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>0.627</v>
@@ -2292,16 +2478,16 @@
         <v>162380</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="E32">
         <v>500331</v>
       </c>
       <c r="F32">
-        <v>152034.3</v>
+        <v>152034.29999999999</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H32">
         <v>0.5353</v>
@@ -2310,21 +2496,24 @@
         <v>84.48639</v>
       </c>
       <c r="J32">
-        <v>18.0826</v>
+        <v>18.082599999999999</v>
       </c>
       <c r="K32">
-        <v>47.05559</v>
+        <v>47.055590000000002</v>
       </c>
       <c r="L32">
-        <v>35.37848</v>
+        <v>35.378480000000003</v>
       </c>
       <c r="M32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>1.375</v>
@@ -2333,7 +2522,7 @@
         <v>356073</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <v>532215</v>
@@ -2342,16 +2531,16 @@
         <v>343200.6</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>0.09018</v>
+        <v>9.0179999999999996E-2</v>
       </c>
       <c r="I33">
         <v>13.1477</v>
       </c>
       <c r="J33">
-        <v>2.17974</v>
+        <v>2.1797399999999998</v>
       </c>
       <c r="K33">
         <v>1.16978</v>
@@ -2360,21 +2549,24 @@
         <v>84.34178</v>
       </c>
       <c r="M33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B34">
-        <v>1.207</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="C34">
         <v>312636</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <v>541154</v>
@@ -2383,10 +2575,10 @@
         <v>293264.5</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H34">
-        <v>0.79816</v>
+        <v>0.79815999999999998</v>
       </c>
       <c r="I34">
         <v>38.39884</v>
@@ -2398,24 +2590,27 @@
         <v>30.71378</v>
       </c>
       <c r="L34">
-        <v>114.1988</v>
+        <v>114.19880000000001</v>
       </c>
       <c r="M34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B35">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C35">
         <v>132555</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>505200</v>
@@ -2424,39 +2619,42 @@
         <v>130814.6</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H35">
-        <v>1.06875</v>
+        <v>1.0687500000000001</v>
       </c>
       <c r="I35">
-        <v>32.69344</v>
+        <v>32.693440000000002</v>
       </c>
       <c r="J35">
-        <v>7.2405</v>
+        <v>7.2404999999999999</v>
       </c>
       <c r="K35">
-        <v>34.90144</v>
+        <v>34.901440000000001</v>
       </c>
       <c r="L35">
         <v>145.9605</v>
       </c>
       <c r="M35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B36">
-        <v>0.8920000000000001</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="C36">
         <v>231026</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="E36">
         <v>500049</v>
@@ -2465,39 +2663,42 @@
         <v>218196.9</v>
       </c>
       <c r="G36" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H36">
-        <v>0.73702</v>
+        <v>0.73702000000000001</v>
       </c>
       <c r="I36">
-        <v>53.85404</v>
+        <v>53.854039999999998</v>
       </c>
       <c r="J36">
-        <v>13.36461</v>
+        <v>13.364610000000001</v>
       </c>
       <c r="K36">
-        <v>40.35994</v>
+        <v>40.359940000000002</v>
       </c>
       <c r="L36">
-        <v>5.54276</v>
+        <v>5.5427600000000004</v>
       </c>
       <c r="M36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B37">
-        <v>1.481</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="C37">
         <v>383610</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="E37">
         <v>500520</v>
@@ -2506,30 +2707,33 @@
         <v>361361.6</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H37">
-        <v>0.69992</v>
+        <v>0.69991999999999999</v>
       </c>
       <c r="I37">
-        <v>31.07623</v>
+        <v>31.076229999999999</v>
       </c>
       <c r="J37">
-        <v>5.07725</v>
+        <v>5.0772500000000003</v>
       </c>
       <c r="K37">
         <v>23.28453</v>
       </c>
       <c r="L37">
-        <v>97.00824</v>
+        <v>97.008240000000001</v>
       </c>
       <c r="M37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>0.182</v>
@@ -2538,7 +2742,7 @@
         <v>47066.5</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E38">
         <v>539437</v>
@@ -2547,7 +2751,7 @@
         <v>47630.16</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="I38">
         <v>15.85511</v>
@@ -2556,24 +2760,27 @@
         <v>1.42544</v>
       </c>
       <c r="L38">
-        <v>4.10404</v>
+        <v>4.1040400000000004</v>
       </c>
       <c r="M38" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B39">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="C39">
         <v>116963</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="E39">
         <v>500087</v>
@@ -2582,7 +2789,7 @@
         <v>121671.1</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H39">
         <v>0.8629</v>
@@ -2591,30 +2798,33 @@
         <v>28.02337</v>
       </c>
       <c r="J39">
-        <v>4.55448</v>
+        <v>4.5544799999999999</v>
       </c>
       <c r="K39">
         <v>25.46566</v>
       </c>
       <c r="L39">
-        <v>53.76048</v>
+        <v>53.760480000000001</v>
       </c>
       <c r="M39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B40">
-        <v>0.202</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="C40">
         <v>52336</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E40">
         <v>500469</v>
@@ -2623,10 +2833,10 @@
         <v>49314.47</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H40">
-        <v>0.59716</v>
+        <v>0.59716000000000002</v>
       </c>
       <c r="I40">
         <v>12.15841</v>
@@ -2635,27 +2845,30 @@
         <v>1.62557</v>
       </c>
       <c r="K40">
-        <v>7.53113</v>
+        <v>7.5311300000000001</v>
       </c>
       <c r="L40">
-        <v>16.52765</v>
+        <v>16.527650000000001</v>
       </c>
       <c r="M40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B41">
-        <v>3.666</v>
+        <v>3.6659999999999999</v>
       </c>
       <c r="C41">
         <v>949624</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E41">
         <v>532174</v>
@@ -2664,39 +2877,42 @@
         <v>908296</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H41">
-        <v>0.77706</v>
+        <v>0.77705999999999997</v>
       </c>
       <c r="I41">
-        <v>20.50097</v>
+        <v>20.500969999999999</v>
       </c>
       <c r="J41">
-        <v>3.52811</v>
+        <v>3.5281099999999999</v>
       </c>
       <c r="K41">
         <v>15.8674</v>
       </c>
       <c r="L41">
-        <v>62.77265</v>
+        <v>62.772649999999999</v>
       </c>
       <c r="M41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B42">
-        <v>0.843</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="C42">
         <v>218308</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E42">
         <v>540180</v>
@@ -2705,30 +2921,33 @@
         <v>212358.8</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H42">
-        <v>0.15924</v>
+        <v>0.15923999999999999</v>
       </c>
       <c r="I42">
-        <v>96.21232999999999</v>
+        <v>96.212329999999994</v>
       </c>
       <c r="J42">
-        <v>29.4063</v>
+        <v>29.406300000000002</v>
       </c>
       <c r="K42">
         <v>15.79861</v>
       </c>
       <c r="L42">
-        <v>6.52723</v>
+        <v>6.5272300000000003</v>
       </c>
       <c r="M42" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="B43">
         <v>0.96</v>
@@ -2737,7 +2956,7 @@
         <v>248743</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="E43">
         <v>500251</v>
@@ -2746,30 +2965,33 @@
         <v>252111.7</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H43">
-        <v>0.04512</v>
+        <v>4.512E-2</v>
       </c>
       <c r="I43">
-        <v>285.4516</v>
+        <v>285.45159999999998</v>
       </c>
       <c r="J43">
-        <v>61.97832</v>
+        <v>61.978319999999997</v>
       </c>
       <c r="K43">
-        <v>7.65133</v>
+        <v>7.6513299999999997</v>
       </c>
       <c r="L43">
-        <v>24.84484</v>
+        <v>24.844840000000001</v>
       </c>
       <c r="M43" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B44">
         <v>2.27</v>
@@ -2778,7 +3000,7 @@
         <v>588071</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>500875</v>
@@ -2787,16 +3009,16 @@
         <v>583733.9</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H44">
-        <v>2.94717</v>
+        <v>2.9471699999999998</v>
       </c>
       <c r="I44">
-        <v>28.54049</v>
+        <v>28.540489999999998</v>
       </c>
       <c r="J44">
-        <v>7.81772</v>
+        <v>7.8177199999999996</v>
       </c>
       <c r="K44">
         <v>83.89058</v>
@@ -2805,21 +3027,24 @@
         <v>16.34695</v>
       </c>
       <c r="M44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B45">
-        <v>0.9769999999999999</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="C45">
         <v>252980</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E45">
         <v>533278</v>
@@ -2828,39 +3053,42 @@
         <v>241548.1</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H45">
-        <v>6.6335</v>
+        <v>6.6334999999999997</v>
       </c>
       <c r="I45">
         <v>6.45594</v>
       </c>
       <c r="J45">
-        <v>2.91972</v>
+        <v>2.9197199999999999</v>
       </c>
       <c r="K45">
-        <v>42.01612</v>
+        <v>42.016120000000001</v>
       </c>
       <c r="L45">
-        <v>60.71149</v>
+        <v>60.711489999999998</v>
       </c>
       <c r="M45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>122</v>
+      </c>
+      <c r="N45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B46">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C46">
         <v>104390</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E46">
         <v>508869</v>
@@ -2869,7 +3097,7 @@
         <v>104927.6</v>
       </c>
       <c r="G46" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H46">
         <v>0.21925</v>
@@ -2881,18 +3109,21 @@
         <v>15.12928</v>
       </c>
       <c r="K46">
-        <v>25.60149</v>
+        <v>25.601489999999998</v>
       </c>
       <c r="L46">
-        <v>62.57581</v>
+        <v>62.575809999999997</v>
       </c>
       <c r="M46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B47">
         <v>0.439</v>
@@ -2901,7 +3132,7 @@
         <v>113610</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E47">
         <v>532424</v>
@@ -2910,36 +3141,39 @@
         <v>110326.3</v>
       </c>
       <c r="G47" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H47">
-        <v>1.85451</v>
+        <v>1.8545100000000001</v>
       </c>
       <c r="I47">
         <v>105.5108</v>
       </c>
       <c r="J47">
-        <v>8.75544</v>
+        <v>8.7554400000000001</v>
       </c>
       <c r="L47">
         <v>10.22123</v>
       </c>
       <c r="M47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="B48">
-        <v>1.368</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="C48">
         <v>354244</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E48">
         <v>532500</v>
@@ -2948,39 +3182,42 @@
         <v>344439</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H48">
         <v>1.141</v>
       </c>
       <c r="I48">
-        <v>25.3906</v>
+        <v>25.390599999999999</v>
       </c>
       <c r="J48">
-        <v>4.02213</v>
+        <v>4.0221299999999998</v>
       </c>
       <c r="K48">
-        <v>29.13658</v>
+        <v>29.136579999999999</v>
       </c>
       <c r="L48">
         <v>431.4726</v>
       </c>
       <c r="M48" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B49">
-        <v>2.965</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="C49">
         <v>768142</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E49">
         <v>500112</v>
@@ -2989,10 +3226,10 @@
         <v>743242.4</v>
       </c>
       <c r="G49" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H49">
-        <v>1.64505</v>
+        <v>1.6450499999999999</v>
       </c>
       <c r="I49">
         <v>10.32931</v>
@@ -3004,15 +3241,18 @@
         <v>18.2258</v>
       </c>
       <c r="L49">
-        <v>80.62494</v>
+        <v>80.624939999999995</v>
       </c>
       <c r="M49" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="B50">
         <v>0.45</v>
@@ -3021,39 +3261,42 @@
         <v>116674</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E50">
         <v>500825</v>
       </c>
       <c r="F50">
-        <v>115273.6</v>
+        <v>115273.60000000001</v>
       </c>
       <c r="G50" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H50">
-        <v>1.53581</v>
+        <v>1.5358099999999999</v>
       </c>
       <c r="I50">
-        <v>53.82578</v>
+        <v>53.825780000000002</v>
       </c>
       <c r="J50">
         <v>29.24596</v>
       </c>
       <c r="K50">
-        <v>82.73538000000001</v>
+        <v>82.735380000000006</v>
       </c>
       <c r="L50">
-        <v>88.91186</v>
+        <v>88.911860000000004</v>
       </c>
       <c r="M50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="B51">
         <v>0.89</v>
@@ -3062,7 +3305,7 @@
         <v>230529</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E51">
         <v>500820</v>
@@ -3071,30 +3314,33 @@
         <v>219720.2</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H51">
         <v>1.41371</v>
       </c>
       <c r="I51">
-        <v>40.29433</v>
+        <v>40.294330000000002</v>
       </c>
       <c r="J51">
-        <v>11.7337</v>
+        <v>11.733700000000001</v>
       </c>
       <c r="K51">
-        <v>58.49827</v>
+        <v>58.498269999999998</v>
       </c>
       <c r="L51">
         <v>56.87773</v>
       </c>
       <c r="M51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B52">
         <v>1.677</v>
@@ -3103,7 +3349,7 @@
         <v>434352</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E52">
         <v>524715</v>
@@ -3112,30 +3358,33 @@
         <v>437470.8</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H52">
-        <v>0.74042</v>
+        <v>0.74041999999999997</v>
       </c>
       <c r="I52">
-        <v>43.68675</v>
+        <v>43.686750000000004</v>
       </c>
       <c r="J52">
-        <v>6.87126</v>
+        <v>6.8712600000000004</v>
       </c>
       <c r="K52">
-        <v>32.76917</v>
+        <v>32.769170000000003</v>
       </c>
       <c r="L52">
-        <v>41.73577</v>
+        <v>41.735770000000002</v>
       </c>
       <c r="M52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="B53">
         <v>0.97</v>
@@ -3144,7 +3393,7 @@
         <v>251185</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E53">
         <v>532977</v>
@@ -3153,39 +3402,42 @@
         <v>250847.3</v>
       </c>
       <c r="G53" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H53">
-        <v>0.89061</v>
+        <v>0.89061000000000001</v>
       </c>
       <c r="I53">
-        <v>32.95242</v>
+        <v>32.952419999999996</v>
       </c>
       <c r="J53">
-        <v>8.658720000000001</v>
+        <v>8.6587200000000006</v>
       </c>
       <c r="K53">
-        <v>28.97471</v>
+        <v>28.974710000000002</v>
       </c>
       <c r="L53">
-        <v>272.5945</v>
+        <v>272.59449999999998</v>
       </c>
       <c r="M53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="B54">
-        <v>1.249</v>
+        <v>1.2490000000000001</v>
       </c>
       <c r="C54">
         <v>323527</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E54">
         <v>507685</v>
@@ -3194,39 +3446,42 @@
         <v>327118.3</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H54">
-        <v>0.15987</v>
+        <v>0.15987000000000001</v>
       </c>
       <c r="I54">
-        <v>28.01945</v>
+        <v>28.019449999999999</v>
       </c>
       <c r="J54">
-        <v>4.35348</v>
+        <v>4.3534800000000002</v>
       </c>
       <c r="K54">
-        <v>4.72422</v>
+        <v>4.7242199999999999</v>
       </c>
       <c r="L54">
         <v>11.16189</v>
       </c>
       <c r="M54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>70</v>
+      </c>
+      <c r="N54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="B55">
-        <v>2.058</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="C55">
         <v>533172</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E55">
         <v>500510</v>
@@ -3235,39 +3490,42 @@
         <v>511046.7</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H55">
-        <v>0.75343</v>
+        <v>0.75343000000000004</v>
       </c>
       <c r="I55">
-        <v>41.68692</v>
+        <v>41.686920000000001</v>
       </c>
       <c r="J55">
-        <v>5.9157</v>
+        <v>5.9157000000000002</v>
       </c>
       <c r="K55">
-        <v>35.93246</v>
+        <v>35.932459999999999</v>
       </c>
       <c r="L55">
-        <v>89.14906999999999</v>
+        <v>89.149069999999995</v>
       </c>
       <c r="M55" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="B56">
-        <v>0.6819999999999999</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="C56">
         <v>176741</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E56">
         <v>500300</v>
@@ -3276,39 +3534,42 @@
         <v>170494.9</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H56">
-        <v>0.39385</v>
+        <v>0.39384999999999998</v>
       </c>
       <c r="I56">
-        <v>27.7951</v>
+        <v>27.795100000000001</v>
       </c>
       <c r="J56">
-        <v>1.94921</v>
+        <v>1.9492100000000001</v>
       </c>
       <c r="K56">
-        <v>11.80605</v>
+        <v>11.806050000000001</v>
       </c>
       <c r="L56">
-        <v>91.34883000000001</v>
+        <v>91.348830000000007</v>
       </c>
       <c r="M56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="B57">
-        <v>5.504</v>
+        <v>5.5039999999999996</v>
       </c>
       <c r="C57">
         <v>1425620</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E57">
         <v>500180</v>
@@ -3317,13 +3578,13 @@
         <v>1371616</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H57">
-        <v>1.08726</v>
+        <v>1.0872599999999999</v>
       </c>
       <c r="I57">
-        <v>19.97693</v>
+        <v>19.976929999999999</v>
       </c>
       <c r="J57">
         <v>2.98536</v>
@@ -3332,15 +3593,18 @@
         <v>23.12443</v>
       </c>
       <c r="L57">
-        <v>89.77857</v>
+        <v>89.778570000000002</v>
       </c>
       <c r="M57" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="B58">
         <v>0.6</v>
@@ -3349,7 +3613,7 @@
         <v>155363</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E58">
         <v>532488</v>
@@ -3358,30 +3622,33 @@
         <v>154522.6</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H58">
-        <v>0.5154</v>
+        <v>0.51539999999999997</v>
       </c>
       <c r="I58">
-        <v>96.39838</v>
+        <v>96.398380000000003</v>
       </c>
       <c r="J58">
-        <v>11.38624</v>
+        <v>11.386240000000001</v>
       </c>
       <c r="K58">
         <v>49.75</v>
       </c>
       <c r="L58">
-        <v>60.38224</v>
+        <v>60.382240000000003</v>
       </c>
       <c r="M58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B59">
         <v>6.625</v>
@@ -3390,7 +3657,7 @@
         <v>1715970</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E59">
         <v>500325</v>
@@ -3399,39 +3666,42 @@
         <v>1665091</v>
       </c>
       <c r="G59" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H59">
         <v>0.40636</v>
       </c>
       <c r="I59">
-        <v>23.8482</v>
+        <v>23.848199999999999</v>
       </c>
       <c r="J59">
-        <v>2.09844</v>
+        <v>2.0984400000000001</v>
       </c>
       <c r="K59">
-        <v>8.74592</v>
+        <v>8.7459199999999999</v>
       </c>
       <c r="L59">
-        <v>51.59508</v>
+        <v>51.595080000000003</v>
       </c>
       <c r="M59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>122</v>
+      </c>
+      <c r="N59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="B60">
-        <v>1.031</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="C60">
         <v>267050</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E60">
         <v>532978</v>
@@ -3440,48 +3710,51 @@
         <v>253452.6</v>
       </c>
       <c r="G60" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H60">
-        <v>0.06290999999999999</v>
+        <v>6.2909999999999994E-2</v>
       </c>
       <c r="I60">
-        <v>22.15773</v>
+        <v>22.157730000000001</v>
       </c>
       <c r="J60">
-        <v>4.19612</v>
+        <v>4.1961199999999996</v>
       </c>
       <c r="K60">
-        <v>1.9582</v>
+        <v>1.9581999999999999</v>
       </c>
       <c r="L60">
-        <v>71.73793000000001</v>
+        <v>71.737930000000006</v>
       </c>
       <c r="M60" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="B61">
-        <v>0.5499999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C61">
         <v>142471</v>
       </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E61">
         <v>540719</v>
       </c>
       <c r="F61">
-        <v>140883.7</v>
+        <v>140883.70000000001</v>
       </c>
       <c r="G61" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H61">
         <v>0.19205</v>
@@ -3490,7 +3763,7 @@
         <v>74.79974</v>
       </c>
       <c r="J61">
-        <v>9.44397</v>
+        <v>9.4439700000000002</v>
       </c>
       <c r="K61">
         <v>14.27684</v>
@@ -3499,30 +3772,33 @@
         <v>18.79552</v>
       </c>
       <c r="M61" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="B62">
         <v>0.373</v>
       </c>
       <c r="C62">
-        <v>96488.39999999999</v>
+        <v>96488.4</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E62">
         <v>541729</v>
       </c>
       <c r="F62">
-        <v>93928.99000000001</v>
+        <v>93928.99</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H62">
         <v>1.59301</v>
@@ -3531,30 +3807,33 @@
         <v>48.34675</v>
       </c>
       <c r="J62">
-        <v>13.25922</v>
+        <v>13.259219999999999</v>
       </c>
       <c r="K62">
-        <v>76.92375</v>
+        <v>76.923749999999998</v>
       </c>
       <c r="L62">
-        <v>90.88925</v>
+        <v>90.889250000000004</v>
       </c>
       <c r="M62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B63">
-        <v>0.349</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="C63">
         <v>90405.8</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E63">
         <v>500096</v>
@@ -3563,7 +3842,7 @@
         <v>89315.81</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H63">
         <v>1.09138</v>
@@ -3572,30 +3851,33 @@
         <v>48.53378</v>
       </c>
       <c r="J63">
-        <v>9.051209999999999</v>
+        <v>9.0512099999999993</v>
       </c>
       <c r="K63">
-        <v>52.41062</v>
+        <v>52.410620000000002</v>
       </c>
       <c r="L63">
         <v>10.38349</v>
       </c>
       <c r="M63" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="B64">
-        <v>0.835</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C64">
         <v>216256</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E64">
         <v>500790</v>
@@ -3604,30 +3886,33 @@
         <v>208296.5</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H64">
-        <v>1.36549</v>
+        <v>1.3654900000000001</v>
       </c>
       <c r="J64">
-        <v>62.34761</v>
+        <v>62.347610000000003</v>
       </c>
       <c r="M64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="B65">
-        <v>0.363</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="C65">
         <v>94086.2</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E65">
         <v>500257</v>
@@ -3636,39 +3921,42 @@
         <v>98668.69</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H65">
-        <v>0.36988</v>
+        <v>0.36987999999999999</v>
       </c>
       <c r="I65">
-        <v>47.67311</v>
+        <v>47.673110000000001</v>
       </c>
       <c r="J65">
-        <v>6.89675</v>
+        <v>6.8967499999999999</v>
       </c>
       <c r="K65">
-        <v>19.04434</v>
+        <v>19.044339999999998</v>
       </c>
       <c r="L65">
-        <v>45.36834</v>
+        <v>45.368340000000003</v>
       </c>
       <c r="M65" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B66">
-        <v>0.517</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="C66">
         <v>133935</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E66">
         <v>532155</v>
@@ -3677,10 +3965,10 @@
         <v>127307.1</v>
       </c>
       <c r="G66" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H66">
-        <v>2.84062</v>
+        <v>2.8406199999999999</v>
       </c>
       <c r="I66">
         <v>12.61856</v>
@@ -3692,24 +3980,27 @@
         <v>36.54157</v>
       </c>
       <c r="L66">
-        <v>15.34406</v>
+        <v>15.344060000000001</v>
       </c>
       <c r="M66" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="N66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="B67">
-        <v>0.657</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="C67">
         <v>170114</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E67">
         <v>539448</v>
@@ -3718,51 +4009,54 @@
         <v>171327.4</v>
       </c>
       <c r="G67" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="I67">
         <v>20.84038</v>
       </c>
       <c r="J67">
-        <v>85.72537</v>
+        <v>85.725369999999998</v>
       </c>
       <c r="L67">
-        <v>212.7624</v>
+        <v>212.76240000000001</v>
       </c>
       <c r="M67" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="B68">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C68">
         <v>135930</v>
       </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E68">
         <v>500400</v>
       </c>
       <c r="F68">
-        <v>131839.7</v>
+        <v>131839.70000000001</v>
       </c>
       <c r="G68" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H68">
-        <v>0.48473</v>
+        <v>0.48472999999999999</v>
       </c>
       <c r="I68">
-        <v>37.83232</v>
+        <v>37.832320000000003</v>
       </c>
       <c r="J68">
-        <v>4.07475</v>
+        <v>4.0747499999999999</v>
       </c>
       <c r="K68">
         <v>17.28969</v>
@@ -3771,12 +4065,15 @@
         <v>10.90602</v>
       </c>
       <c r="M68" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="N68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B69">
         <v>1.119</v>
@@ -3785,7 +4082,7 @@
         <v>289901</v>
       </c>
       <c r="D69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E69">
         <v>512599</v>
@@ -3794,39 +4091,42 @@
         <v>279236.7</v>
       </c>
       <c r="G69" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H69">
-        <v>0.05373</v>
+        <v>5.373E-2</v>
       </c>
       <c r="I69">
-        <v>75.84058</v>
+        <v>75.840580000000003</v>
       </c>
       <c r="J69">
-        <v>7.05818</v>
+        <v>7.0581800000000001</v>
       </c>
       <c r="K69">
-        <v>4.57471</v>
+        <v>4.5747099999999996</v>
       </c>
       <c r="L69">
-        <v>31.90047</v>
+        <v>31.900469999999999</v>
       </c>
       <c r="M69" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>122</v>
+      </c>
+      <c r="N69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="B70">
-        <v>0.713</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="C70">
         <v>184631</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E70">
         <v>500470</v>
@@ -3835,36 +4135,39 @@
         <v>178839.1</v>
       </c>
       <c r="G70" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H70">
-        <v>2.51291</v>
+        <v>2.5129100000000002</v>
       </c>
       <c r="I70">
-        <v>6080.645</v>
+        <v>6080.6450000000004</v>
       </c>
       <c r="J70">
         <v>1.94133</v>
       </c>
       <c r="L70">
-        <v>0.02356</v>
+        <v>2.3560000000000001E-2</v>
       </c>
       <c r="M70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="B71">
-        <v>0.7799999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="C71">
         <v>202146</v>
       </c>
       <c r="D71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E71">
         <v>530965</v>
@@ -3873,16 +4176,16 @@
         <v>197160.7</v>
       </c>
       <c r="G71" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H71">
-        <v>8.594760000000001</v>
+        <v>8.5947600000000008</v>
       </c>
       <c r="I71">
-        <v>4.58699</v>
+        <v>4.5869900000000001</v>
       </c>
       <c r="J71">
-        <v>1.04832</v>
+        <v>1.0483199999999999</v>
       </c>
       <c r="K71">
         <v>39.60219</v>
@@ -3891,12 +4194,15 @@
         <v>30.43824</v>
       </c>
       <c r="M71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>122</v>
+      </c>
+      <c r="N71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="B72">
         <v>0.35</v>
@@ -3911,42 +4217,45 @@
         <v>500182</v>
       </c>
       <c r="F72">
-        <v>88138.78999999999</v>
+        <v>88138.79</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H72">
-        <v>2.60951</v>
+        <v>2.6095100000000002</v>
       </c>
       <c r="I72">
-        <v>22.8481</v>
+        <v>22.848099999999999</v>
       </c>
       <c r="J72">
-        <v>4.97796</v>
+        <v>4.9779600000000004</v>
       </c>
       <c r="K72">
-        <v>21.35531</v>
+        <v>21.355309999999999</v>
       </c>
       <c r="L72">
-        <v>192.8804</v>
+        <v>192.88040000000001</v>
       </c>
       <c r="M72" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="B73">
-        <v>2.047</v>
+        <v>2.0470000000000002</v>
       </c>
       <c r="C73">
         <v>530182</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E73">
         <v>532281</v>
@@ -3955,39 +4264,42 @@
         <v>523433.8</v>
       </c>
       <c r="G73" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H73">
-        <v>2.79178</v>
+        <v>2.7917800000000002</v>
       </c>
       <c r="I73">
         <v>33.43712</v>
       </c>
       <c r="J73">
-        <v>7.68924</v>
+        <v>7.6892399999999999</v>
       </c>
       <c r="K73">
-        <v>89.67010999999999</v>
+        <v>89.670109999999994</v>
       </c>
       <c r="L73">
-        <v>57.84739</v>
+        <v>57.847389999999997</v>
       </c>
       <c r="M73" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>70</v>
+      </c>
+      <c r="N73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="B74">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="C74">
         <v>235874</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E74">
         <v>540376</v>
@@ -3996,24 +4308,27 @@
         <v>227636.2</v>
       </c>
       <c r="G74" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="I74">
-        <v>89.81826</v>
+        <v>89.818259999999995</v>
       </c>
       <c r="J74">
-        <v>12.17448</v>
+        <v>12.174480000000001</v>
       </c>
       <c r="L74">
-        <v>38.94698</v>
+        <v>38.946980000000003</v>
       </c>
       <c r="M74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="B75">
         <v>1.115</v>
@@ -4022,48 +4337,51 @@
         <v>288858</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E75">
         <v>500570</v>
       </c>
       <c r="F75">
-        <v>273894.1</v>
+        <v>273894.09999999998</v>
       </c>
       <c r="G75" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H75">
         <v>0.4032</v>
       </c>
       <c r="I75">
-        <v>8.905200000000001</v>
+        <v>8.9052000000000007</v>
       </c>
       <c r="J75">
-        <v>3.3578</v>
+        <v>3.3578000000000001</v>
       </c>
       <c r="K75">
-        <v>7.35537</v>
+        <v>7.3553699999999997</v>
       </c>
       <c r="L75">
-        <v>83.55226</v>
+        <v>83.552260000000004</v>
       </c>
       <c r="M75" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="B76">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="C76">
         <v>117898</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E76">
         <v>511218</v>
@@ -4072,7 +4390,7 @@
         <v>110766.2</v>
       </c>
       <c r="G76" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H76">
         <v>1.59568</v>
@@ -4081,48 +4399,51 @@
         <v>10.31934</v>
       </c>
       <c r="J76">
-        <v>2.26137</v>
+        <v>2.2613699999999999</v>
       </c>
       <c r="K76">
-        <v>22.94533</v>
+        <v>22.945329999999998</v>
       </c>
       <c r="L76">
         <v>285.43</v>
       </c>
       <c r="M76" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="B77">
         <v>0.375</v>
       </c>
       <c r="C77">
-        <v>97218.60000000001</v>
+        <v>97218.6</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E77">
         <v>540716</v>
       </c>
       <c r="F77">
-        <v>93980.39999999999</v>
+        <v>93980.4</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H77">
-        <v>0.6059</v>
+        <v>0.60589999999999999</v>
       </c>
       <c r="I77">
-        <v>47.1243</v>
+        <v>47.124299999999998</v>
       </c>
       <c r="J77">
-        <v>7.22096</v>
+        <v>7.2209599999999998</v>
       </c>
       <c r="K77">
         <v>26.88608</v>
@@ -4131,53 +4452,59 @@
         <v>40.27646</v>
       </c>
       <c r="M77" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="B78">
-        <v>2.146</v>
+        <v>2.1459999999999999</v>
       </c>
       <c r="C78">
         <v>555902</v>
       </c>
       <c r="D78" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E78">
         <v>500696</v>
       </c>
       <c r="F78">
-        <v>554468.3</v>
+        <v>554468.30000000005</v>
       </c>
       <c r="G78" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H78">
-        <v>1.82215</v>
+        <v>1.8221499999999999</v>
       </c>
       <c r="I78">
-        <v>53.46834</v>
+        <v>53.468339999999998</v>
       </c>
       <c r="J78">
         <v>10.82565</v>
       </c>
       <c r="K78">
-        <v>96.02024</v>
+        <v>96.020240000000001</v>
       </c>
       <c r="L78">
-        <v>44.13546</v>
+        <v>44.135460000000002</v>
       </c>
       <c r="M78" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="B79">
         <v>3.173</v>
@@ -4186,7 +4513,7 @@
         <v>822000</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E79">
         <v>500209</v>
@@ -4195,16 +4522,16 @@
         <v>806122.3</v>
       </c>
       <c r="G79" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H79">
-        <v>2.10667</v>
+        <v>2.1066699999999998</v>
       </c>
       <c r="I79">
-        <v>30.64587</v>
+        <v>30.645869999999999</v>
       </c>
       <c r="J79">
-        <v>9.14382</v>
+        <v>9.1438199999999998</v>
       </c>
       <c r="K79">
         <v>72.78237</v>
@@ -4213,62 +4540,68 @@
         <v>63.50611</v>
       </c>
       <c r="M79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>70</v>
+      </c>
+      <c r="N79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="B80">
-        <v>0.352</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="C80">
         <v>91064.8</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E80">
         <v>500800</v>
       </c>
       <c r="F80">
-        <v>89753.78999999999</v>
+        <v>89753.79</v>
       </c>
       <c r="G80" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H80">
-        <v>0.84388</v>
+        <v>0.84387999999999996</v>
       </c>
       <c r="I80">
-        <v>65.84258</v>
+        <v>65.842579999999998</v>
       </c>
       <c r="J80">
-        <v>5.4498</v>
+        <v>5.4497999999999998</v>
       </c>
       <c r="K80">
-        <v>68.24216</v>
+        <v>68.242159999999998</v>
       </c>
       <c r="L80">
         <v>13.7768</v>
       </c>
       <c r="M80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="B81">
-        <v>0.9350000000000001</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="C81">
         <v>242186</v>
       </c>
       <c r="D81" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E81">
         <v>500228</v>
@@ -4277,39 +4610,42 @@
         <v>225892.6</v>
       </c>
       <c r="G81" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H81">
-        <v>0.78838</v>
+        <v>0.78837999999999997</v>
       </c>
       <c r="I81">
-        <v>26.60167</v>
+        <v>26.601669999999999</v>
       </c>
       <c r="J81">
-        <v>2.87108</v>
+        <v>2.8710800000000001</v>
       </c>
       <c r="K81">
         <v>20.25647</v>
       </c>
       <c r="L81">
-        <v>34.80796</v>
+        <v>34.807960000000001</v>
       </c>
       <c r="M81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="B82">
-        <v>0.6709999999999999</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="C82">
         <v>173875</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E82">
         <v>532755</v>
@@ -4318,121 +4654,130 @@
         <v>171713.5</v>
       </c>
       <c r="G82" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H82">
         <v>2.45105</v>
       </c>
       <c r="I82">
-        <v>57.72098</v>
+        <v>57.720979999999997</v>
       </c>
       <c r="J82">
-        <v>5.80536</v>
+        <v>5.8053600000000003</v>
       </c>
       <c r="K82">
-        <v>165.6587</v>
+        <v>165.65870000000001</v>
       </c>
       <c r="L82">
-        <v>30.39363</v>
+        <v>30.393630000000002</v>
       </c>
       <c r="M82" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>70</v>
+      </c>
+      <c r="N82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="B83">
-        <v>0.232</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="C83">
         <v>59978</v>
       </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E83">
         <v>523642</v>
       </c>
       <c r="F83">
-        <v>58762.88</v>
+        <v>58762.879999999997</v>
       </c>
       <c r="G83" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H83">
-        <v>0.38724</v>
+        <v>0.38723999999999997</v>
       </c>
       <c r="I83">
-        <v>34.91829</v>
+        <v>34.918289999999999</v>
       </c>
       <c r="J83">
         <v>6.73</v>
       </c>
       <c r="K83">
-        <v>13.52959</v>
+        <v>13.529590000000001</v>
       </c>
       <c r="L83">
         <v>110.9333</v>
       </c>
       <c r="M83" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="B84">
-        <v>1.223</v>
+        <v>1.2230000000000001</v>
       </c>
       <c r="C84">
         <v>316771</v>
       </c>
       <c r="D84" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E84">
         <v>500312</v>
       </c>
       <c r="F84">
-        <v>304254.1</v>
+        <v>304254.09999999998</v>
       </c>
       <c r="G84" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H84">
-        <v>5.16849</v>
+        <v>5.1684900000000003</v>
       </c>
       <c r="I84">
-        <v>5.87468</v>
+        <v>5.8746799999999997</v>
       </c>
       <c r="J84">
         <v>0.90264</v>
       </c>
       <c r="K84">
-        <v>31.30957</v>
+        <v>31.309570000000001</v>
       </c>
       <c r="L84">
-        <v>41.16822</v>
+        <v>41.168219999999998</v>
       </c>
       <c r="M84" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>122</v>
+      </c>
+      <c r="N84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="B85">
-        <v>0.4989999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="C85">
         <v>129353</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E85">
         <v>500547</v>
@@ -4441,39 +4786,42 @@
         <v>127790.7</v>
       </c>
       <c r="G85" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H85">
-        <v>7.12952</v>
+        <v>7.1295200000000003</v>
       </c>
       <c r="I85">
-        <v>4.62757</v>
+        <v>4.6275700000000004</v>
       </c>
       <c r="J85">
         <v>1.68957</v>
       </c>
       <c r="K85">
-        <v>16.96064</v>
+        <v>16.960640000000001</v>
       </c>
       <c r="L85">
-        <v>63.65115</v>
+        <v>63.651150000000001</v>
       </c>
       <c r="M85" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>122</v>
+      </c>
+      <c r="N85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="B86">
-        <v>3.844</v>
+        <v>3.8439999999999999</v>
       </c>
       <c r="C86">
         <v>995801</v>
       </c>
       <c r="D86" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E86">
         <v>532454</v>
@@ -4482,10 +4830,10 @@
         <v>957503.4</v>
       </c>
       <c r="G86" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H86">
-        <v>0.49991</v>
+        <v>0.49991000000000002</v>
       </c>
       <c r="I86">
         <v>110.8693</v>
@@ -4494,68 +4842,74 @@
         <v>11.02777</v>
       </c>
       <c r="K86">
-        <v>61.83742</v>
+        <v>61.837420000000002</v>
       </c>
       <c r="L86">
         <v>14.43411</v>
       </c>
       <c r="M86" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>47</v>
+      </c>
+      <c r="N86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="B87">
-        <v>0.166</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="C87">
         <v>42944</v>
       </c>
       <c r="D87" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E87">
         <v>540611</v>
       </c>
       <c r="F87">
-        <v>40830.62</v>
+        <v>40830.620000000003</v>
       </c>
       <c r="G87" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H87">
         <v>0.18225</v>
       </c>
       <c r="I87">
-        <v>23.73829</v>
+        <v>23.738289999999999</v>
       </c>
       <c r="J87">
-        <v>2.92343</v>
+        <v>2.9234300000000002</v>
       </c>
       <c r="K87">
-        <v>4.36016</v>
+        <v>4.3601599999999996</v>
       </c>
       <c r="L87">
-        <v>23.11455</v>
+        <v>23.114550000000001</v>
       </c>
       <c r="M87" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="B88">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="C88">
         <v>200759</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E88">
         <v>500295</v>
@@ -4564,30 +4918,33 @@
         <v>192195.1</v>
       </c>
       <c r="G88" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H88">
-        <v>9.580880000000001</v>
+        <v>9.5808800000000005</v>
       </c>
       <c r="I88">
-        <v>20.64651</v>
+        <v>20.646509999999999</v>
       </c>
       <c r="J88">
-        <v>5.94845</v>
+        <v>5.9484500000000002</v>
       </c>
       <c r="K88">
-        <v>105.7104</v>
+        <v>105.71040000000001</v>
       </c>
       <c r="L88">
         <v>23.84422</v>
       </c>
       <c r="M88" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="B89">
         <v>1.321</v>
@@ -4596,7 +4953,7 @@
         <v>342147</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E89">
         <v>532555</v>
@@ -4605,39 +4962,42 @@
         <v>327165.5</v>
       </c>
       <c r="G89" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H89">
-        <v>2.03764</v>
+        <v>2.0376400000000001</v>
       </c>
       <c r="I89">
         <v>15.61318</v>
       </c>
       <c r="J89">
-        <v>2.03576</v>
+        <v>2.0357599999999998</v>
       </c>
       <c r="K89">
-        <v>36.10878</v>
+        <v>36.108780000000003</v>
       </c>
       <c r="L89">
-        <v>21.60995</v>
+        <v>21.609950000000001</v>
       </c>
       <c r="M89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="N89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="B90">
-        <v>6.168</v>
+        <v>6.1680000000000001</v>
       </c>
       <c r="C90">
         <v>1597710</v>
       </c>
       <c r="D90" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="E90">
         <v>532540</v>
@@ -4646,7 +5006,7 @@
         <v>1545611</v>
       </c>
       <c r="G90" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H90">
         <v>1.3343</v>
@@ -4655,7 +5015,7 @@
         <v>33.42418</v>
       </c>
       <c r="J90">
-        <v>17.08065</v>
+        <v>17.080649999999999</v>
       </c>
       <c r="K90">
         <v>103.348</v>
@@ -4664,12 +5024,15 @@
         <v>127.8087</v>
       </c>
       <c r="M90" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>70</v>
+      </c>
+      <c r="N90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="B91">
         <v>1.33</v>
@@ -4678,7 +5041,7 @@
         <v>344602</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="E91">
         <v>532538</v>
@@ -4687,71 +5050,77 @@
         <v>336357.7</v>
       </c>
       <c r="G91" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H91">
-        <v>0.59979</v>
+        <v>0.59979000000000005</v>
       </c>
       <c r="I91">
-        <v>47.69334</v>
+        <v>47.693339999999999</v>
       </c>
       <c r="J91">
-        <v>5.59423</v>
+        <v>5.5942299999999996</v>
       </c>
       <c r="K91">
         <v>28.84854</v>
       </c>
       <c r="L91">
-        <v>244.705</v>
+        <v>244.70500000000001</v>
       </c>
       <c r="M91" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="B92">
-        <v>0.5669999999999999</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="C92">
         <v>146778</v>
       </c>
       <c r="D92" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="E92">
         <v>500440</v>
       </c>
       <c r="F92">
-        <v>140721.3</v>
+        <v>140721.29999999999</v>
       </c>
       <c r="G92" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H92">
-        <v>0.55613</v>
+        <v>0.55613000000000001</v>
       </c>
       <c r="I92">
-        <v>13.31703</v>
+        <v>13.317030000000001</v>
       </c>
       <c r="J92">
         <v>1.3263</v>
       </c>
       <c r="K92">
-        <v>7.6514</v>
+        <v>7.6513999999999998</v>
       </c>
       <c r="L92">
         <v>47.25902</v>
       </c>
       <c r="M92" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="B93">
         <v>1.036</v>
@@ -4760,7 +5129,7 @@
         <v>268473</v>
       </c>
       <c r="D93" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E93">
         <v>532921</v>
@@ -4769,80 +5138,86 @@
         <v>260296.8</v>
       </c>
       <c r="G93" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>0.49793</v>
+        <v>0.49792999999999998</v>
       </c>
       <c r="I93">
-        <v>29.27363</v>
+        <v>29.273630000000001</v>
       </c>
       <c r="J93">
-        <v>4.9319</v>
+        <v>4.9318999999999997</v>
       </c>
       <c r="K93">
         <v>15.13087</v>
       </c>
       <c r="L93">
-        <v>41.16333</v>
+        <v>41.163330000000002</v>
       </c>
       <c r="M93" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="B94">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="C94">
         <v>76997.8</v>
       </c>
       <c r="D94" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="E94">
         <v>500830</v>
       </c>
       <c r="F94">
-        <v>75631.03999999999</v>
+        <v>75631.039999999994</v>
       </c>
       <c r="G94" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H94">
-        <v>1.79811</v>
+        <v>1.7981100000000001</v>
       </c>
       <c r="I94">
-        <v>56.51121</v>
+        <v>56.511209999999998</v>
       </c>
       <c r="J94">
-        <v>40.3503</v>
+        <v>40.350299999999997</v>
       </c>
       <c r="K94">
-        <v>119.1787</v>
+        <v>119.17870000000001</v>
       </c>
       <c r="L94">
         <v>49.20617</v>
       </c>
       <c r="M94" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B95">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="C95">
         <v>108119</v>
       </c>
       <c r="D95" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E95">
         <v>511243</v>
@@ -4851,39 +5226,42 @@
         <v>102049.8</v>
       </c>
       <c r="G95" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H95">
-        <v>0.16478</v>
+        <v>0.16478000000000001</v>
       </c>
       <c r="I95">
         <v>22.99362</v>
       </c>
       <c r="J95">
-        <v>5.20339</v>
+        <v>5.2033899999999997</v>
       </c>
       <c r="K95">
-        <v>4.87477</v>
+        <v>4.8747699999999998</v>
       </c>
       <c r="L95">
-        <v>52.78638</v>
+        <v>52.786380000000001</v>
       </c>
       <c r="M95" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="B96">
-        <v>1.178</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="C96">
         <v>305181</v>
       </c>
       <c r="D96" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="E96">
         <v>500114</v>
@@ -4892,28 +5270,36 @@
         <v>297767.8</v>
       </c>
       <c r="G96" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H96">
-        <v>0.32769</v>
+        <v>0.32768999999999998</v>
       </c>
       <c r="I96">
-        <v>85.12174</v>
+        <v>85.121740000000003</v>
       </c>
       <c r="J96">
-        <v>31.80663</v>
+        <v>31.806629999999998</v>
       </c>
       <c r="K96">
         <v>27.94622</v>
       </c>
       <c r="L96">
-        <v>39.43587</v>
+        <v>39.435870000000001</v>
       </c>
       <c r="M96" t="s">
-        <v>206</v>
+        <v>24</v>
+      </c>
+      <c r="N96" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>